--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.32</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>008515</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>富兰克林国海基本面优选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>28.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005051</t>
+          <t>007178</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005052</t>
+          <t>005051</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
+          <t>上投摩根标普港股通低波红利指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.74</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.73</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007178</t>
+          <t>005052</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+          <t>上投摩根标普港股通低波红利指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007216</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008515</t>
+          <t>007216</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富兰克林国海基本面优选混合</t>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.43</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9539</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007216</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商港股通中华交易服务预期高股息指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.01</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.03</v>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.18</v>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.01</v>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1710,14 +1775,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.03</v>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1726,14 +1813,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.18</v>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1742,13 +1851,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2312,7 +2313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,17 +2324,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2343,14 +2364,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.37</v>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2359,14 +2402,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.91</v>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2375,14 +2440,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.01</v>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2391,14 +2478,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.03</v>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2407,14 +2516,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.18</v>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2423,13 +2554,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.91</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +2436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +2966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2683,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00998-中信银行.xlsx
+++ b/数据整理/stocks/港股/00998-中信银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.91</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +794,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.82</t>
+          <t>12.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>88.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8510</t>
+          <t>0.9323</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +832,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>16.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.99</t>
+          <t>87.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6766</t>
+          <t>0.7417</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513690</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时恒生港股通高股息率ETF</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>97.26</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0805</t>
+          <t>0.1428</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.1388</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>513530</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0285</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>159726</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏恒生中国内地企业高股息率ETF</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.48</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0244</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1012,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.14</t>
+          <t>98.34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -949,26 +1060,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1088,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>513530</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>96.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1126,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50.20</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1164,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005702</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恒生前海港股通高股息低波动指数</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0051</t>
+          <t>0.0121</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1091,32 +1202,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1129,36 +1240,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>005702</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>恒生前海港股通高股息低波动指数</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.79</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1177,26 +1288,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1205,6 +1316,594 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6766</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513530</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通高股息投资ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159726</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005702</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒生前海港股通高股息低波动指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城中证沪港深红利成长低波动指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1526,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +2889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2436,7 +3135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2758,7 +3457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2966,7 +3665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3286,98 +3985,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008515</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富兰克林国海基本面优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6974</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>